--- a/medicine/Enfance/Yvonne_Girault/Yvonne_Girault.xlsx
+++ b/medicine/Enfance/Yvonne_Girault/Yvonne_Girault.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Yvonne Girault, née Le Brun le 10 novembre 1896 à Cherbourg[1] et morte le 3 septembre 1984 dans le 12e arrondissement de Paris[2], est un écrivain français de romans pour la jeunesse et un traducteur d'auteurs anglo-saxons. Elle a écrit également avec la romancière Yette Jeandet sous les pseudonymes collectifs de Diélette et Anne Clairac. Elle également traduit des ouvrages en anglais.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yvonne Girault, née Le Brun le 10 novembre 1896 à Cherbourg et morte le 3 septembre 1984 dans le 12e arrondissement de Paris, est un écrivain français de romans pour la jeunesse et un traducteur d'auteurs anglo-saxons. Elle a écrit également avec la romancière Yette Jeandet sous les pseudonymes collectifs de Diélette et Anne Clairac. Elle également traduit des ouvrages en anglais.
 </t>
         </is>
       </c>
@@ -511,11 +523,48 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Note : liste non exhaustive. La première date est celle de la première édition française.
-En tant qu'auteur
-1920 : Contes du pays des neiges – Éditions Larousse, collection Les Livres Roses pour la Jeunesse.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Note : liste non exhaustive. La première date est celle de la première édition française.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Yvonne_Girault</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Yvonne_Girault</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>En tant qu'auteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1920 : Contes du pays des neiges – Éditions Larousse, collection Les Livres Roses pour la Jeunesse.
 1934 : Le Sachet de lavande – Éditeur : Impr. R. Bussière.
 1936 : Le Page de messire de Monluc – Éditions Larousse, coll. Les Livres Roses pour la Jeunesse no 651. Illustrations de A. Bonamy.
 1937 : Aventures d'un orfèvre – Éditions Larousse, coll. Les Livres Roses pour la Jeunesse no 660. Illustrations de A. Bonamy.
@@ -546,7 +595,7 @@
 1974 : Belles Histoires de Victor Hugo – Éditions Gautier-Languereau.
 1976 : Dix grands poètes – Éditions Gautier-Languereau.
 1999 : 15 Histoires à remonter le temps, Hachette (avec Bertrand Solet, Luce Fillol, René Antona...)
-Collection Série 15 [3] - Éditions Gautier-Languereau
+Collection Série 15  - Éditions Gautier-Languereau
 1967 : 15 Westerns - Illustrations de Jacques Pecnard.
 1967 : 15 Exploits de Lagardère (Adaptation d'Yvonne Girault d'après Paul Féval).
 1968 : 15 Énigmes de l'histoire – Illustrations de Georges Pichard.
@@ -555,9 +604,43 @@
 1970 : 15 Récits du Moyen Âge.
 1970 : 15 Merveilles du Monde: douze nouvelles (La grande muraille de Chine, Quand la tour Eiffel était neuve, Fête de nuit au Taj Mahal, Le secret des Pyramides, La tour de Londres garde son mystère, Le temple du Soleil, Versailles, Renaud de Montauban et la cathédrale de Cologne, Le krak des Chevaliers, Sainte-Sophie et la prise de Constantinople par les Turcs, Tiphaine raguenel au Mont-Saint-Michel, Brasilia, la ville du futur (avec Alexandre Dumas, Henrik Sienkiewicz et Victor Hugo); illustrations de Georges Pichard.
 1972 : 15 Histoires de danse.
-1975 : 15 Évasions célèbres.
-En tant que traducteur
-1947 : Fenimore Cooper : Les Pionniers – Éditions Fernand Nathan.
+1975 : 15 Évasions célèbres.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Yvonne_Girault</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Yvonne_Girault</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>En tant que traducteur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1947 : Fenimore Cooper : Les Pionniers – Éditions Fernand Nathan.
 1949 : Elizabeth Goudge : L'Auberge du pèlerin – Éditions Plon, coll. Feux croisés, âmes et terres étrangères.
 1950 : Fenimore Cooper : La Prairie – Éditions Fernand Nathan, Coll. Œuvres célèbres pour la jeunesse.
 1951 : Irena Balinska : Le Camp Secret – Éditions Fleurus &amp; Gautier-Languereau, coll. Jean- François. Illustrations de André Galland.
